--- a/Outputs/3. Prosumer percentage/Grid Search/Evaluation Metrics.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Evaluation Metrics.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Output_Budget/5. Prosumer percentage/Grid Search/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/microgrid_MP/Outputs/3. Prosumer percentage/Grid Search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_085D1ADFD560F60E623554765816AEBBB639841B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F84671B9-C613-4F39-A938-75467CA695DE}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_C248A429E630921FD2FE31D2F8F2D3C2C4D1B0FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{305F07CA-9506-4029-B7BC-302D55B1B592}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Prosumer percentage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>FiT</t>
   </si>
@@ -40,31 +37,10 @@
     <t>Household Surplus</t>
   </si>
   <si>
-    <t>60</t>
+    <t>Wasted generation (from total)</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Prosumer percentage</t>
   </si>
 </sst>
 </file>
@@ -82,8 +58,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +162,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -218,6 +196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,9 +231,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,161 +408,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>0.09</v>
+      </c>
+      <c r="C2">
+        <v>0.39</v>
+      </c>
+      <c r="D2">
+        <v>0.1748909501816468</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>7627398.21940412</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.17</v>
+      </c>
+      <c r="C3">
+        <v>0.38</v>
+      </c>
+      <c r="D3">
+        <v>0.171525950819475</v>
+      </c>
+      <c r="E3">
+        <v>8.0008600495539678E-2</v>
+      </c>
+      <c r="F3">
+        <v>7873987.9189035706</v>
+      </c>
+      <c r="G3">
+        <v>4.7060864255094877E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0.13</v>
+      </c>
+      <c r="C4">
+        <v>0.37</v>
+      </c>
+      <c r="D4">
+        <v>0.1302026213376791</v>
+      </c>
+      <c r="E4">
+        <v>5.8270494322515368E-2</v>
+      </c>
+      <c r="F4">
+        <v>8228880.6935279723</v>
+      </c>
+      <c r="G4">
+        <v>3.4274563064530153E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.11</v>
+      </c>
+      <c r="C5">
+        <v>0.35</v>
+      </c>
+      <c r="D5">
+        <v>0.11574524252798921</v>
+      </c>
+      <c r="E5">
+        <v>0.10138619668873269</v>
+      </c>
+      <c r="F5">
+        <v>8393080.9751948956</v>
+      </c>
+      <c r="G5">
+        <v>5.9635114352172579E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>0.34</v>
+      </c>
+      <c r="D6">
+        <v>9.5770197691731118E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.1398172478970911</v>
+      </c>
+      <c r="F6">
+        <v>8417063.6393414065</v>
+      </c>
+      <c r="G6">
+        <v>8.224016522039744E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C2">
+      <c r="C7">
         <v>0.32</v>
       </c>
-      <c r="D2">
+      <c r="D7">
         <v>7.9592443686727021E-2</v>
       </c>
-      <c r="E2">
+      <c r="E7">
         <v>0.1001161193053302</v>
       </c>
-      <c r="F2">
+      <c r="F7">
         <v>8343838.6029534619</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.13</v>
-      </c>
-      <c r="C3">
-        <v>0.37</v>
-      </c>
-      <c r="D3">
-        <v>0.1302026213376791</v>
-      </c>
-      <c r="E3">
-        <v>5.8270494322515368E-2</v>
-      </c>
-      <c r="F3">
-        <v>8228880.6935279723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.34</v>
-      </c>
-      <c r="D4">
-        <v>5.3861149367329872E-2</v>
-      </c>
-      <c r="E4">
-        <v>0.44513205670510358</v>
-      </c>
-      <c r="F4">
-        <v>7072240.9492407991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.08</v>
-      </c>
-      <c r="C5">
-        <v>0.32</v>
-      </c>
-      <c r="D5">
-        <v>6.4032814343545866E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.51662998712898789</v>
-      </c>
-      <c r="F5">
-        <v>6547303.0462612938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.17</v>
-      </c>
-      <c r="C6">
-        <v>0.38</v>
-      </c>
-      <c r="D6">
-        <v>0.171525950819475</v>
-      </c>
-      <c r="E6">
-        <v>8.0008600495539678E-2</v>
-      </c>
-      <c r="F6">
-        <v>7873987.9189035706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
-        <v>0.34</v>
-      </c>
-      <c r="D7">
-        <v>9.5770197691731118E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.1398172478970911</v>
-      </c>
-      <c r="F7">
-        <v>8417063.6393414065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+      <c r="G7">
+        <v>5.8888057923693927E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>75</v>
       </c>
       <c r="B8">
         <v>0.08</v>
@@ -599,42 +602,57 @@
       <c r="F8">
         <v>7745438.9772295002</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+      <c r="G8">
+        <v>0.1565751821759358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>90</v>
       </c>
       <c r="B9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="D9">
-        <v>0.11574524252798921</v>
+        <v>5.3861149367329872E-2</v>
       </c>
       <c r="E9">
-        <v>0.10138619668873269</v>
+        <v>0.44513205670510358</v>
       </c>
       <c r="F9">
-        <v>8393080.9751948956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>7072240.9492407991</v>
+      </c>
+      <c r="G9">
+        <v>0.26182559332928079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>0.08</v>
       </c>
       <c r="C10">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="D10">
-        <v>0.1748909501816468</v>
+        <v>6.4032814343545866E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.51662998712898789</v>
       </c>
       <c r="F10">
-        <v>7627398.21940412</v>
+        <v>6547303.0462612938</v>
+      </c>
+      <c r="G10">
+        <v>0.30388050214356788</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Outputs/3. Prosumer percentage/Grid Search/Evaluation Metrics.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Evaluation Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/microgrid_MP/Outputs/3. Prosumer percentage/Grid Search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_C248A429E630921FD2FE31D2F8F2D3C2C4D1B0FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{305F07CA-9506-4029-B7BC-302D55B1B592}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_BF56E425E630921FD2FE31D2F8F2D3C294D0D9E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1624DAC6-A238-4BDE-9AD4-5E99F09FD02D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,6 +119,2621 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2870710200780151E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4274563064530153E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9635114352172579E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.224016522039744E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8888057923693927E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1565751821759358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26182559332928079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30388050214356788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E13-46B1-B673-768123524354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2132972976"/>
+        <c:axId val="2132972496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2132972976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132972496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2132972496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132972976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.19336904035108751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16899769553538241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1302026213376791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11574524252798921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5770197691731118E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9592443686727021E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6158966989845265E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3861149367329872E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4032814343545866E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D61-46FC-91BE-F9E339C83BD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1275975376"/>
+        <c:axId val="1275977776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1275975376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275977776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275977776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275975376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7461121.7008513566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7874887.3182789609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8228880.6935279723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8393080.9751948956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8417063.6393414065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8343838.6029534619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7745438.9772295002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7072240.9492407991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6547303.0462612938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-465C-440A-BB12-D3C953BF50D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1275028768"/>
+        <c:axId val="1662363856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1275028768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1662363856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1662363856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275028768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483E03AE-F119-A4B3-3FE4-FA3E636EA8BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B64CD9A-CB04-1354-03E8-5434232C553D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D91E39-0C0A-E4A2-0FEA-C5D8D2BABEC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,16 +3026,10 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -456,13 +3065,13 @@
         <v>0.39</v>
       </c>
       <c r="D2">
-        <v>0.1748909501816468</v>
+        <v>0.19336904035108751</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7627398.21940412</v>
+        <v>7461121.7008513566</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -473,22 +3082,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="C3">
         <v>0.38</v>
       </c>
       <c r="D3">
-        <v>0.171525950819475</v>
+        <v>0.16899769553538241</v>
       </c>
       <c r="E3">
-        <v>8.0008600495539678E-2</v>
+        <v>8.988597207735545E-2</v>
       </c>
       <c r="F3">
-        <v>7873987.9189035706</v>
+        <v>7874887.3182789609</v>
       </c>
       <c r="G3">
-        <v>4.7060864255094877E-2</v>
+        <v>5.2870710200780151E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,5 +3263,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/3. Prosumer percentage/Grid Search/Evaluation Metrics.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Evaluation Metrics.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/microgrid_MP/Outputs/3. Prosumer percentage/Grid Search/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/ud_penalty/Outputs/3. Prosumer percentage/Grid Search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E9588537E630921FD2FE31D2F8F2D3C2245A3BF4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_085DADA71358AA0E62355476584A9E7BB78F85AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58843A5D-E391-46E2-A42A-0F2DC768601E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Prosumer percentage</t>
+  </si>
   <si>
     <t>FiT</t>
   </si>
@@ -39,9 +42,6 @@
   <si>
     <t>Wasted generation (from total)</t>
   </si>
-  <si>
-    <t>Prosumer percentage</t>
-  </si>
 </sst>
 </file>
 
@@ -58,10 +58,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,9 +120,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -196,7 +194,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,10 +228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,35 +407,35 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,65 +446,65 @@
         <v>0.39</v>
       </c>
       <c r="D2">
-        <v>0.19336904035108751</v>
+        <v>0.1888811928180118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7461121.7008513566</v>
+        <v>7499120.09771345</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="C3">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="D3">
-        <v>0.16899769553538241</v>
+        <v>0.1591767656294667</v>
       </c>
       <c r="E3">
-        <v>8.988597207735545E-2</v>
+        <v>6.2387066115065372E-2</v>
       </c>
       <c r="F3">
-        <v>7874887.3182789609</v>
+        <v>7955592.5360603184</v>
       </c>
       <c r="G3">
-        <v>5.2870710200780151E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.6695920582667817E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>25</v>
       </c>
       <c r="B4">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C4">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D4">
-        <v>0.16693925729886569</v>
+        <v>0.12821220432846889</v>
       </c>
       <c r="E4">
-        <v>6.3709854228751764E-2</v>
+        <v>7.2903476852655372E-2</v>
       </c>
       <c r="F4">
-        <v>8174359.6990723694</v>
+        <v>8274606.4543245696</v>
       </c>
       <c r="G4">
-        <v>3.7473981334523093E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.2881647805832222E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -516,45 +512,45 @@
         <v>0.12</v>
       </c>
       <c r="C5">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D5">
-        <v>0.11669815875188359</v>
+        <v>0.1166981587518837</v>
       </c>
       <c r="E5">
-        <v>0.1101638191083892</v>
+        <v>0.11016381910838929</v>
       </c>
       <c r="F5">
-        <v>8286215.060302454</v>
+        <v>8496739.86635633</v>
       </c>
       <c r="G5">
-        <v>6.4798090514928464E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.4798090514928575E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C6">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D6">
-        <v>9.0009042043214263E-2</v>
+        <v>8.4082704068046507E-2</v>
       </c>
       <c r="E6">
-        <v>0.153509923748684</v>
+        <v>0.13039760056505831</v>
       </c>
       <c r="F6">
-        <v>8456011.0785251688</v>
+        <v>8619907.6482918691</v>
       </c>
       <c r="G6">
-        <v>9.0294163859915608E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.6699551565389476E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -562,22 +558,22 @@
         <v>0.09</v>
       </c>
       <c r="C7">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D7">
-        <v>5.2436277133971212E-2</v>
+        <v>6.1345569101697368E-2</v>
       </c>
       <c r="E7">
-        <v>0.1982378504832423</v>
+        <v>0.20244026988739089</v>
       </c>
       <c r="F7">
-        <v>8314459.3272046559</v>
+        <v>8427118.0655258149</v>
       </c>
       <c r="G7">
-        <v>0.11660302160058091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1190748744751058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>75</v>
       </c>
@@ -588,65 +584,65 @@
         <v>0.34</v>
       </c>
       <c r="D8">
-        <v>3.661911592855141E-2</v>
+        <v>3.6619115928551438E-2</v>
       </c>
       <c r="E8">
-        <v>0.23996710978623079</v>
+        <v>0.2399671097862309</v>
       </c>
       <c r="F8">
-        <v>8060478.9880249072</v>
+        <v>8060478.9880249053</v>
       </c>
       <c r="G8">
-        <v>0.1411480704498364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.14114807044983649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>90</v>
       </c>
       <c r="B9">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C9">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>3.1971727413014753E-2</v>
+        <v>2.803677133533717E-2</v>
       </c>
       <c r="E9">
-        <v>0.37599341103196421</v>
+        <v>0.3755688248037633</v>
       </c>
       <c r="F9">
-        <v>7586741.5438057818</v>
+        <v>7596287.2877472145</v>
       </c>
       <c r="G9">
-        <v>0.2211584100683249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2209086694813607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>100</v>
       </c>
       <c r="B10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>1.3861467411539151E-2</v>
+        <v>1.386146741153917E-2</v>
       </c>
       <c r="E10">
-        <v>0.47410653732625269</v>
+        <v>0.47410653732625241</v>
       </c>
       <c r="F10">
-        <v>7075124.6755435653</v>
+        <v>7089451.9449234158</v>
       </c>
       <c r="G10">
-        <v>0.27886831237358911</v>
+        <v>0.27886831237358889</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>